--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma.xlsx
@@ -493,9 +493,7 @@
       <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -517,14 +515,12 @@
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>3</v>
       </c>
@@ -533,21 +529,15 @@
       <c r="A4" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>1</v>
       </c>
@@ -557,18 +547,16 @@
       <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>1</v>
       </c>
@@ -593,9 +581,7 @@
       <c r="A6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>4</v>
       </c>
@@ -609,9 +595,7 @@
       <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>5</v>
       </c>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma.xlsx
@@ -481,9 +481,7 @@
       <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
         <v>1</v>
       </c>
@@ -493,7 +491,9 @@
       <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -508,19 +508,19 @@
       <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
@@ -537,13 +537,13 @@
       <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>2</v>
       </c>
@@ -552,7 +552,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
@@ -560,19 +562,17 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
@@ -590,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -600,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma.xlsx
@@ -481,7 +481,9 @@
       <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
@@ -491,9 +493,7 @@
       <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -508,13 +508,13 @@
       <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>2</v>
       </c>
@@ -529,7 +529,9 @@
       <c r="A4" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
@@ -547,18 +549,16 @@
       <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
@@ -566,13 +566,13 @@
       <c r="F5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
       <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>3</v>
       </c>
@@ -581,7 +581,9 @@
       <c r="A6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
@@ -589,9 +591,7 @@
       <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>4</v>
       </c>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma.xlsx
@@ -482,18 +482,18 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -530,18 +530,18 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>1</v>
       </c>
@@ -581,17 +581,19 @@
       <c r="A6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
       <c r="G6" t="n">
         <v>4</v>
       </c>
@@ -599,9 +601,7 @@
       <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
